--- a/Test/Free Cash Flow.xlsx
+++ b/Test/Free Cash Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Sales</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Years = </t>
   </si>
   <si>
-    <t xml:space="preserve">After Tax = </t>
-  </si>
-  <si>
     <t xml:space="preserve">NPV = </t>
   </si>
   <si>
@@ -90,15 +87,9 @@
     <t>strait line % =</t>
   </si>
   <si>
-    <t xml:space="preserve">Strait line $ = </t>
-  </si>
-  <si>
     <t xml:space="preserve">MARCS % = </t>
   </si>
   <si>
-    <t xml:space="preserve">MARCS $ = </t>
-  </si>
-  <si>
     <t xml:space="preserve">Full Immediate $ = </t>
   </si>
   <si>
@@ -136,6 +127,24 @@
   </si>
   <si>
     <t>Equipment Cost Redeemed</t>
+  </si>
+  <si>
+    <t>Third Group</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strait line depriciation = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value of tax shield = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCS depriciation = </t>
+  </si>
+  <si>
+    <t>Markov may be better off using the​ straight-line method if it expects its tax rate to increase substantially in later years.</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +187,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -287,6 +302,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,535 +637,521 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31">
-        <v>0</v>
-      </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31">
-        <v>0</v>
-      </c>
-      <c r="E2" s="31">
-        <v>0</v>
-      </c>
-      <c r="F2" s="31">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <v>0</v>
-      </c>
-      <c r="H2" s="31">
-        <v>0</v>
-      </c>
-      <c r="I2" s="31">
-        <v>0</v>
-      </c>
-      <c r="J2" s="31">
-        <v>0</v>
-      </c>
-      <c r="K2" s="31">
-        <v>0</v>
-      </c>
-      <c r="L2" s="31">
+      <c r="A2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="24">
+        <v>0</v>
+      </c>
+      <c r="K2" s="24">
+        <v>0</v>
+      </c>
+      <c r="L2" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
+        <v>0</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0</v>
+      </c>
+      <c r="K3" s="31">
+        <v>0</v>
+      </c>
+      <c r="L3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30">
-        <f>-2.1*319000</f>
-        <v>-669900</v>
-      </c>
-      <c r="D3" s="30">
-        <f t="shared" ref="D3:L3" si="0">-2.1*319000</f>
-        <v>-669900</v>
-      </c>
-      <c r="E3" s="30">
+      <c r="B4" s="30">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0</v>
+      </c>
+      <c r="K4" s="30">
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <f t="shared" ref="B5:K5" si="0">SUM(B2:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="I3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="J3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="K3" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-      <c r="L3" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
         <f t="shared" si="0"/>
-        <v>-669900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25">
-        <f>SUM(B2:B3)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="25">
-        <f t="shared" ref="C4:K4" si="1">SUM(C2:C3)</f>
-        <v>-669900</v>
-      </c>
-      <c r="D4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="E4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="F4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="G4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="H4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="I4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="J4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="K4" s="25">
-        <f t="shared" si="1"/>
-        <v>-669900</v>
-      </c>
-      <c r="L4" s="25">
-        <f>SUM(L2:L3)</f>
-        <v>-669900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="29">
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="29">
-        <v>0</v>
-      </c>
-      <c r="J5" s="29">
-        <v>0</v>
-      </c>
-      <c r="K5" s="29">
-        <v>0</v>
-      </c>
-      <c r="L5" s="29">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <f>SUM(L2:L4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="26">
-        <v>0</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
+        <v>10</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30">
-        <v>0</v>
-      </c>
-      <c r="C7" s="30">
-        <f>$B$14/10</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <f t="shared" ref="D7:L7" si="2">$B$14/10</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="B8" s="30">
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
+        <f t="shared" ref="C8:I8" si="1">$B$15/7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25">
+        <f>SUM(B5:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <f>SUM(C5:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" ref="D9:L9" si="2">SUM(D5:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L9" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25">
-        <f>SUM(B4:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
-        <f>SUM(C4:C7)</f>
-        <v>-669900</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" ref="D8:L8" si="3">SUM(D4:D7)</f>
-        <v>-669900</v>
-      </c>
-      <c r="E8" s="25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="39">
+        <f>-B9*B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="39">
+        <f t="shared" ref="C11:L11" si="3">-C9*C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="39">
         <f t="shared" si="3"/>
-        <v>-669900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="39">
-        <f>-B8*B9</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="39">
-        <f t="shared" ref="C10:L10" si="4">-C8*C9</f>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="D10" s="39">
+        <v>0</v>
+      </c>
+      <c r="L11" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25">
+        <f>SUM(B9,B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" ref="C12:L12" si="4">SUM(C9,C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="I10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="J10" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="K10" s="39">
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-      <c r="L10" s="39">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
         <f t="shared" si="4"/>
-        <v>234464.99999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="25">
-        <f>SUM(B8,B10)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="25">
-        <f t="shared" ref="C11:L11" si="5">SUM(C8,C10)</f>
-        <v>-435435</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="E11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="H11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="K11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="5"/>
-        <v>-435435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="31">
-        <v>0</v>
-      </c>
-      <c r="C12" s="31">
-        <v>0</v>
-      </c>
-      <c r="D12" s="31">
-        <v>0</v>
-      </c>
-      <c r="E12" s="31">
-        <v>0</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31">
-        <v>0</v>
-      </c>
-      <c r="I12" s="31">
-        <v>0</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31">
-        <v>0</v>
-      </c>
-      <c r="L12" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="29">
-        <v>0</v>
-      </c>
-      <c r="C13" s="29">
-        <v>0</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
-        <v>0</v>
-      </c>
-      <c r="K13" s="29">
-        <v>0</v>
-      </c>
-      <c r="L13" s="29">
+        <v>3</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="E13" s="31">
+        <v>0</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="29">
         <v>0</v>
       </c>
       <c r="C14" s="29">
-        <f>$B$20</f>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D14" s="29">
         <v>0</v>
@@ -1180,326 +1183,385 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="29">
-        <v>0</v>
-      </c>
-      <c r="C15" s="29">
-        <v>0</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="29">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
-        <v>0</v>
-      </c>
-      <c r="L15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="29">
+        <v>0</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="30">
-        <v>0</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30">
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
-        <v>0</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-      <c r="K16" s="30">
-        <v>0</v>
-      </c>
-      <c r="L16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="30">
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="25">
-        <f>SUM(B11:B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="25">
-        <f>SUM(C11:C16)</f>
-        <v>-435434.85</v>
-      </c>
-      <c r="D17" s="25">
-        <f t="shared" ref="D17:L17" si="6">SUM(D11:D16)</f>
-        <v>-435435</v>
-      </c>
-      <c r="E17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="G17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="H17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="I17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="K17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-      <c r="L17" s="25">
-        <f t="shared" si="6"/>
-        <v>-435435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="25">
+        <f t="shared" ref="B18:L18" si="5">SUM(B12:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="25">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="25">
+        <f>NPV($B$21,$C$18:C18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <f>NPV($B$21,$C$18:D18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <f>NPV($B$21,$C$18:E18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <f>NPV($B$21,$C$18:F18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <f>NPV($B$21,$C$18:G18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <f>NPV($B$21,$C$18:H18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <f>NPV($B$21,$C$18:I18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <f>NPV($B$21,$C$18:J18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="25">
+        <f>NPV($B$21,$C$18:K18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <f>NPV($B$21,$C$18:L18) + $B$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="31">
+        <v>0</v>
+      </c>
+      <c r="C23" s="31">
+        <v>-29999.999999999996</v>
+      </c>
+      <c r="D23" s="31">
+        <v>-57777.777777777774</v>
+      </c>
+      <c r="E23" s="31">
+        <v>-83497.942386831273</v>
+      </c>
+      <c r="F23" s="31">
+        <v>-107312.90961743635</v>
+      </c>
+      <c r="G23" s="31">
+        <v>-129363.80520132995</v>
+      </c>
+      <c r="H23" s="31">
+        <v>-149781.30111234254</v>
+      </c>
+      <c r="I23" s="31">
+        <v>-168686.38991883566</v>
+      </c>
+      <c r="J23" s="31">
+        <v>-186191.10177669968</v>
+      </c>
+      <c r="K23" s="31">
+        <v>-202399.16831175896</v>
+      </c>
+      <c r="L23" s="31">
+        <v>-217406.63732570273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="31">
+        <v>-165000</v>
+      </c>
+      <c r="C24" s="31">
+        <v>-167936.5079365079</v>
+      </c>
+      <c r="D24" s="31">
+        <v>-170655.49676660783</v>
+      </c>
+      <c r="E24" s="31">
+        <v>-173173.07901670033</v>
+      </c>
+      <c r="F24" s="31">
+        <v>-175504.17369271192</v>
+      </c>
+      <c r="G24" s="31">
+        <v>-177662.59468901894</v>
+      </c>
+      <c r="H24" s="31">
+        <v>-179661.13264856249</v>
+      </c>
+      <c r="I24" s="31">
+        <v>-181511.63075925095</v>
+      </c>
+      <c r="J24" s="31">
+        <v>-188319.01870397583</v>
+      </c>
+      <c r="K24" s="31">
+        <v>-194622.15568983223</v>
+      </c>
+      <c r="L24" s="31">
+        <v>-200458.39363969926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="25">
-        <f>B17</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <f>NPV($B$20,$C$17:C17) + $B$18</f>
-        <v>-378639</v>
-      </c>
-      <c r="D18" s="25">
-        <f>NPV($B$20,$C$17:D17) + $B$18</f>
-        <v>-707890.41776937619</v>
-      </c>
-      <c r="E18" s="25">
-        <f>NPV($B$20,$C$17:E17) + $B$18</f>
-        <v>-994195.99843839905</v>
-      </c>
-      <c r="F18" s="25">
-        <f>NPV($B$20,$C$17:F17) + $B$18</f>
-        <v>-1243157.3729332015</v>
-      </c>
-      <c r="G18" s="25">
-        <f>NPV($B$20,$C$17:G17) + $B$18</f>
-        <v>-1459645.5246678123</v>
-      </c>
-      <c r="H18" s="25">
-        <f>NPV($B$20,$C$17:H17) + $B$18</f>
-        <v>-1647896.0913935609</v>
-      </c>
-      <c r="I18" s="25">
-        <f>NPV($B$20,$C$17:I17) + $B$18</f>
-        <v>-1811592.2363724727</v>
-      </c>
-      <c r="J18" s="25">
-        <f>NPV($B$20,$C$17:J17) + $B$18</f>
-        <v>-1953936.7102671785</v>
-      </c>
-      <c r="K18" s="25">
-        <f>NPV($B$20,$C$17:K17) + $B$18</f>
-        <v>-2077714.5136538793</v>
-      </c>
-      <c r="L18" s="25">
-        <f>NPV($B$20,$C$17:L17) + $B$18</f>
-        <v>-2185347.3861640538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="31">
-        <v>0</v>
-      </c>
-      <c r="C22" s="31">
-        <v>-378639</v>
-      </c>
-      <c r="D22" s="31">
-        <v>-707890.41776937619</v>
-      </c>
-      <c r="E22" s="31">
-        <v>-994195.99843839905</v>
-      </c>
-      <c r="F22" s="31">
-        <v>-1243157.3729332015</v>
-      </c>
-      <c r="G22" s="31">
-        <v>-1459645.5246678123</v>
-      </c>
-      <c r="H22" s="31">
-        <v>-1647896.0913935609</v>
-      </c>
-      <c r="I22" s="31">
-        <v>-1811592.2363724727</v>
-      </c>
-      <c r="J22" s="31">
-        <v>-1953936.7102671785</v>
-      </c>
-      <c r="K22" s="31">
-        <v>-2077714.5136538793</v>
-      </c>
-      <c r="L22" s="31">
-        <v>-2185347.3861640538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="21">
-        <v>-327000</v>
-      </c>
-      <c r="C23" s="21">
-        <v>-570599.86956521741</v>
-      </c>
-      <c r="D23" s="21">
-        <v>-782425.95652173914</v>
-      </c>
-      <c r="E23" s="21">
-        <v>-966622.55387523642</v>
-      </c>
-      <c r="F23" s="21">
-        <v>-1126793.5080956689</v>
-      </c>
-      <c r="G23" s="21">
-        <v>-1266072.5987221319</v>
-      </c>
-      <c r="H23" s="21">
-        <v>-1387184.851440795</v>
-      </c>
-      <c r="I23" s="21">
-        <v>-1492499.8538048503</v>
-      </c>
-      <c r="J23" s="21">
-        <v>-1584078.1167301156</v>
-      </c>
-      <c r="K23" s="21">
-        <v>-1663711.388839042</v>
-      </c>
-      <c r="L23" s="21">
-        <v>-1720317.3045027147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="25">
-        <f>B23-B22</f>
-        <v>-327000</v>
-      </c>
-      <c r="C24" s="25">
-        <f t="shared" ref="C24:L24" si="7">C23-C22</f>
-        <v>-191960.86956521741</v>
-      </c>
-      <c r="D24" s="25">
-        <f t="shared" si="7"/>
-        <v>-74535.538752362947</v>
-      </c>
-      <c r="E24" s="25">
-        <f t="shared" si="7"/>
-        <v>27573.444563162629</v>
-      </c>
-      <c r="F24" s="25">
-        <f t="shared" si="7"/>
-        <v>116363.86483753263</v>
-      </c>
-      <c r="G24" s="25">
-        <f t="shared" si="7"/>
-        <v>193572.92594568036</v>
-      </c>
-      <c r="H24" s="25">
-        <f t="shared" si="7"/>
-        <v>260711.23995276587</v>
-      </c>
-      <c r="I24" s="25">
-        <f t="shared" si="7"/>
-        <v>319092.38256762247</v>
-      </c>
-      <c r="J24" s="25">
-        <f t="shared" si="7"/>
-        <v>369858.59353706287</v>
-      </c>
-      <c r="K24" s="25">
-        <f t="shared" si="7"/>
-        <v>414003.12481483724</v>
-      </c>
-      <c r="L24" s="25">
-        <f t="shared" si="7"/>
-        <v>465030.08166133915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="B25" s="21">
+        <v>-276600</v>
+      </c>
+      <c r="C25" s="21">
+        <v>-266441.26984126988</v>
+      </c>
+      <c r="D25" s="21">
+        <v>-257035.03821281606</v>
+      </c>
+      <c r="E25" s="21">
+        <v>-248325.5644827662</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-240261.23695494229</v>
+      </c>
+      <c r="G25" s="21">
+        <v>-232794.26702177199</v>
+      </c>
+      <c r="H25" s="21">
+        <v>-225880.4059725402</v>
+      </c>
+      <c r="I25" s="21">
+        <v>-219478.68277880712</v>
+      </c>
+      <c r="J25" s="21">
+        <v>-221423.65076301422</v>
+      </c>
+      <c r="K25" s="21">
+        <v>-223224.54704468747</v>
+      </c>
+      <c r="L25" s="21">
+        <v>-224892.04360179233</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1524,6 +1586,12 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,7 +1604,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:L16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1615,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -1585,7 +1653,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="24">
         <v>0</v>
@@ -1623,7 +1691,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="21">
         <v>0</v>
@@ -1717,7 +1785,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="26">
         <v>0</v>
@@ -1755,7 +1823,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -1940,7 +2008,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="31">
         <v>0</v>
@@ -1963,7 +2031,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="21">
         <v>0</v>
@@ -1987,7 +2055,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="25">
         <f>B15-B14</f>
@@ -2020,15 +2088,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2072,7 +2140,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2120,149 +2188,149 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="34">
         <f>$B$13*C2</f>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="D3" s="34">
         <f t="shared" ref="D3:L3" si="1">$B$13*D2</f>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="E3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="F3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="H3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="I3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="J3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="K3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="L3" s="34">
         <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B4" s="36">
         <v>0</v>
       </c>
       <c r="C4" s="36">
         <f>$B$17*C3</f>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="D4" s="36">
         <f t="shared" ref="D4:L4" si="2">$B$17*D3</f>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="E4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="F4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="G4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="H4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="I4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="J4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="K4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="L4" s="36">
         <f t="shared" si="2"/>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="37">
         <f>NPV($B$16,$C$4:C4) + $B$3</f>
-        <v>0.49111111111111116</v>
+        <v>0.49794392523364489</v>
       </c>
       <c r="D5" s="37">
         <f>NPV($B$16,$C$4:D4) + $B$3</f>
-        <v>0.94584362139917699</v>
+        <v>0.96331207965761212</v>
       </c>
       <c r="E5" s="37">
         <f>NPV($B$16,$C$4:E4) + $B$3</f>
-        <v>1.366892242036275</v>
+        <v>1.3982355884650581</v>
       </c>
       <c r="F5" s="37">
         <f>NPV($B$16,$C$4:F4) + $B$3</f>
-        <v>1.7567520759595139</v>
+        <v>1.8047061574439793</v>
       </c>
       <c r="G5" s="37">
         <f>NPV($B$16,$C$4:G4) + $B$3</f>
-        <v>2.1177334036662168</v>
+        <v>2.184585193872878</v>
       </c>
       <c r="H5" s="37">
         <f>NPV($B$16,$C$4:H4) + $B$3</f>
-        <v>2.451975373765015</v>
+        <v>2.5396123307223157</v>
       </c>
       <c r="I5" s="37">
         <f>NPV($B$16,$C$4:I4) + $B$3</f>
-        <v>2.7614586794120508</v>
+        <v>2.8714133931984258</v>
       </c>
       <c r="J5" s="37">
         <f>NPV($B$16,$C$4:J4) + $B$3</f>
-        <v>3.0480172957518987</v>
+        <v>3.1815078441106781</v>
       </c>
       <c r="K5" s="37">
         <f>NPV($B$16,$C$4:K4) + $B$3</f>
-        <v>3.3133493479184248</v>
+        <v>3.4713157421595118</v>
       </c>
       <c r="L5" s="37">
         <f>NPV($B$16,$C$4:L4) + $B$3</f>
-        <v>3.5590271739985408</v>
+        <v>3.7421642450088894</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10">
         <v>0.2</v>
@@ -2285,89 +2353,89 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <f>$B$13*B7</f>
-        <v>1.56</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:G8" si="3">$B$13*C7</f>
-        <v>2.496</v>
+        <v>2.3680000000000003</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="3"/>
-        <v>1.4976</v>
+        <v>1.4208000000000001</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>0.89855999999999991</v>
+        <v>0.85248000000000002</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>0.89855999999999991</v>
+        <v>0.85248000000000002</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
-        <v>0.44927999999999996</v>
+        <v>0.42624000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B9" s="36">
         <f>$B$17*B8</f>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="C9" s="36">
         <f t="shared" ref="C9:G9" si="4">$B$17*C8</f>
-        <v>0.84864000000000006</v>
+        <v>0.85248000000000013</v>
       </c>
       <c r="D9" s="36">
         <f t="shared" si="4"/>
-        <v>0.50918400000000008</v>
+        <v>0.51148800000000005</v>
       </c>
       <c r="E9" s="36">
         <f t="shared" si="4"/>
-        <v>0.30551040000000002</v>
+        <v>0.30689280000000002</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="4"/>
-        <v>0.30551040000000002</v>
+        <v>0.30689280000000002</v>
       </c>
       <c r="G9" s="36">
         <f t="shared" si="4"/>
-        <v>0.15275520000000001</v>
+        <v>0.15344640000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="13">
         <f>B9</f>
-        <v>0.53040000000000009</v>
+        <v>0.53280000000000005</v>
       </c>
       <c r="C10" s="38">
         <f>NPV($B$16,$C$9:C9)+$B$10</f>
-        <v>1.3161777777777779</v>
+        <v>1.3295102803738319</v>
       </c>
       <c r="D10" s="38">
         <f>NPV($B$16,$C$9:D9)+$B$10</f>
-        <v>1.752720987654321</v>
+        <v>1.7762637086208404</v>
       </c>
       <c r="E10" s="38">
         <f>NPV($B$16,$C$9:E9)+$B$10</f>
-        <v>1.9952449931412897</v>
+        <v>2.0267796496939292</v>
       </c>
       <c r="F10" s="38">
         <f>NPV($B$16,$C$9:F9)+$B$10</f>
-        <v>2.219804257481075</v>
+        <v>2.2609066974257881</v>
       </c>
       <c r="G10" s="38">
         <f>NPV($B$16,$C$9:G9)+$B$10</f>
-        <v>2.3237668798606053</v>
+        <v>2.3703118599173107</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2375,7 +2443,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2391,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="8">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2399,16 +2467,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="8">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <f>B13*B17</f>
-        <v>2.6520000000000001</v>
+        <v>2.6640000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2543,7 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">

--- a/Test/Free Cash Flow.xlsx
+++ b/Test/Free Cash Flow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Sales</t>
   </si>
@@ -145,17 +145,21 @@
   </si>
   <si>
     <t>Markov may be better off using the​ straight-line method if it expects its tax rate to increase substantially in later years.</t>
+  </si>
+  <si>
+    <t>IRR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -235,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -304,6 +308,8 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,18 +590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,37 +980,37 @@
         <v>5</v>
       </c>
       <c r="B10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1299,47 +1305,47 @@
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="42">
         <f t="shared" ref="B18:L18" si="5">SUM(B12:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="42">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1348,223 +1354,266 @@
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="42">
         <f>B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="25">
-        <f>NPV($B$21,$C$18:C18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="25">
-        <f>NPV($B$21,$C$18:D18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
-        <f>NPV($B$21,$C$18:E18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <f>NPV($B$21,$C$18:F18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <f>NPV($B$21,$C$18:G18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
-        <f>NPV($B$21,$C$18:H18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="25">
-        <f>NPV($B$21,$C$18:I18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="25">
-        <f>NPV($B$21,$C$18:J18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="25">
-        <f>NPV($B$21,$C$18:K18) + $B$19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="25">
-        <f>NPV($B$21,$C$18:L18) + $B$19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C19" s="42">
+        <f>NPV($B$22,$C$18:C18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="42">
+        <f>NPV($B$22,$C$18:D18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="42">
+        <f>NPV($B$22,$C$18:E18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="42">
+        <f>NPV($B$22,$C$18:F18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <f>NPV($B$22,$C$18:G18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
+        <f>NPV($B$22,$C$18:H18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <f>NPV($B$22,$C$18:I18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
+        <f>NPV($B$22,$C$18:J18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <f>NPV($B$22,$C$18:K18) + $B$19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="42">
+        <f>NPV($B$22,$C$18:L18) + $B$19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43" t="e">
+        <f>IRR($B$18:C18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D20" s="43" t="e">
+        <f>IRR($B$18:D18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E20" s="43" t="e">
+        <f>IRR($B$18:E18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F20" s="43" t="e">
+        <f>IRR($B$18:F18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G20" s="43" t="e">
+        <f>IRR($B$18:G18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H20" s="43" t="e">
+        <f>IRR($B$18:H18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="43" t="e">
+        <f>IRR($B$18:I18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J20" s="43" t="e">
+        <f>IRR($B$18:J18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K20" s="43" t="e">
+        <f>IRR($B$18:K18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="L20" s="43" t="e">
+        <f>IRR($B$18:L18)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="31">
-        <v>0</v>
-      </c>
-      <c r="C23" s="31">
+      <c r="B24" s="31">
+        <v>0</v>
+      </c>
+      <c r="C24" s="31">
         <v>-29999.999999999996</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D24" s="31">
         <v>-57777.777777777774</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E24" s="31">
         <v>-83497.942386831273</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F24" s="31">
         <v>-107312.90961743635</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G24" s="31">
         <v>-129363.80520132995</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H24" s="31">
         <v>-149781.30111234254</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I24" s="31">
         <v>-168686.38991883566</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J24" s="31">
         <v>-186191.10177669968</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K24" s="31">
         <v>-202399.16831175896</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L24" s="31">
         <v>-217406.63732570273</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B25" s="31">
         <v>-165000</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C25" s="31">
         <v>-167936.5079365079</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D25" s="31">
         <v>-170655.49676660783</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E25" s="31">
         <v>-173173.07901670033</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F25" s="31">
         <v>-175504.17369271192</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G25" s="31">
         <v>-177662.59468901894</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H25" s="31">
         <v>-179661.13264856249</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I25" s="31">
         <v>-181511.63075925095</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J25" s="31">
         <v>-188319.01870397583</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K25" s="31">
         <v>-194622.15568983223</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L25" s="31">
         <v>-200458.39363969926</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B26" s="21">
         <v>-276600</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C26" s="21">
         <v>-266441.26984126988</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="21">
         <v>-257035.03821281606</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E26" s="21">
         <v>-248325.5644827662</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F26" s="21">
         <v>-240261.23695494229</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G26" s="21">
         <v>-232794.26702177199</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H26" s="21">
         <v>-225880.4059725402</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I26" s="21">
         <v>-219478.68277880712</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J26" s="21">
         <v>-221423.65076301422</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K26" s="21">
         <v>-223224.54704468747</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L26" s="21">
         <v>-224892.04360179233</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="25">
-        <v>0</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
-        <v>0</v>
-      </c>
-      <c r="J26" s="25">
-        <v>0</v>
-      </c>
-      <c r="K26" s="25">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1592,6 +1641,9 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test/Free Cash Flow.xlsx
+++ b/Test/Free Cash Flow.xlsx
@@ -159,7 +159,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -309,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Test/Free Cash Flow.xlsx
+++ b/Test/Free Cash Flow.xlsx
@@ -593,7 +593,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="11">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
